--- a/output/below_50/tRNA-iMet-CAT-1-7.xlsx
+++ b/output/below_50/tRNA-iMet-CAT-1-7.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>27870281</t>
-  </si>
-  <si>
-    <t>27870304</t>
+    <t>27870687</t>
+  </si>
+  <si>
+    <t>27870710</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>27870301</t>
+    <t>27870707</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,187 +38,265 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>GGTTTCGATCCATCGACCTC</t>
+    <t>CATTGGCCGGGAATCGAACC</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>40% (47)</t>
+  </si>
+  <si>
+    <t>39% (40)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>27870688</t>
+  </si>
+  <si>
+    <t>27870711</t>
+  </si>
+  <si>
+    <t>27870708</t>
+  </si>
+  <si>
+    <t>ATTGGCCGGGAATCGAACCC</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>71% (55)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>27870693</t>
+  </si>
+  <si>
+    <t>27870716</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>27870696</t>
+  </si>
+  <si>
+    <t>GGAGGCCCGGGTTCGATTCC</t>
+  </si>
+  <si>
+    <t>14% (35)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>27870700</t>
+  </si>
+  <si>
+    <t>27870723</t>
+  </si>
+  <si>
+    <t>27870720</t>
+  </si>
+  <si>
+    <t>TCGAACCCGGGCCTCCCGCG</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>11% (32)</t>
-  </si>
-  <si>
-    <t>6% (18)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>27870282</t>
-  </si>
-  <si>
-    <t>27870305</t>
-  </si>
-  <si>
-    <t>27870302</t>
-  </si>
-  <si>
-    <t>GTTTCGATCCATCGACCTCT</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>20% (30)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>27870288</t>
-  </si>
-  <si>
-    <t>27870311</t>
-  </si>
-  <si>
-    <t>27870308</t>
-  </si>
-  <si>
-    <t>ATCCATCGACCTCTGGGTTA</t>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>95% (77)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>27870704</t>
+  </si>
+  <si>
+    <t>27870727</t>
+  </si>
+  <si>
+    <t>27870724</t>
+  </si>
+  <si>
+    <t>ACCCGGGCCTCCCGCGTGGC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>65% (52)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>27870705</t>
+  </si>
+  <si>
+    <t>27870728</t>
+  </si>
+  <si>
+    <t>GCCTGCCACGCGGGAGGCCC</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>77% (59)</t>
+  </si>
+  <si>
+    <t>27870706</t>
+  </si>
+  <si>
+    <t>27870729</t>
+  </si>
+  <si>
+    <t>27870709</t>
+  </si>
+  <si>
+    <t>CGCCTGCCACGCGGGAGGCC</t>
   </si>
   <si>
     <t>6% (27)</t>
   </si>
   <si>
-    <t>16% (27)</t>
+    <t>50% (45)</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>27870734</t>
+  </si>
+  <si>
+    <t>27870714</t>
+  </si>
+  <si>
+    <t>ATTCTCGCCTGCCACGCGGG</t>
+  </si>
+  <si>
+    <t>81% (60)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>63</t>
   </si>
   <si>
-    <t>27870289</t>
-  </si>
-  <si>
-    <t>27870312</t>
-  </si>
-  <si>
-    <t>27870309</t>
-  </si>
-  <si>
-    <t>TCCATCGACCTCTGGGTTAT</t>
-  </si>
-  <si>
-    <t>13% (34)</t>
-  </si>
-  <si>
-    <t>31% (36)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>27870290</t>
-  </si>
-  <si>
-    <t>27870313</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>27870293</t>
-  </si>
-  <si>
-    <t>GCCCATAACCCAGAGGTCGA</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>25% (33)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>27870297</t>
-  </si>
-  <si>
-    <t>27870320</t>
-  </si>
-  <si>
-    <t>27870300</t>
-  </si>
-  <si>
-    <t>GTGCTGGGCCCATAACCCAG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>100% (75)</t>
-  </si>
-  <si>
-    <t>95% (76)</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>27870335</t>
-  </si>
-  <si>
-    <t>27870315</t>
-  </si>
-  <si>
-    <t>TGGCGCAGCGGAAGCGTGCT</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>27870336</t>
-  </si>
-  <si>
-    <t>27870316</t>
-  </si>
-  <si>
-    <t>GTGGCGCAGCGGAAGCGTGC</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>55</t>
+    <t>27870737</t>
+  </si>
+  <si>
+    <t>27870717</t>
+  </si>
+  <si>
+    <t>AGAATTCTCGCCTGCCACGC</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>27870715</t>
+  </si>
+  <si>
+    <t>27870738</t>
+  </si>
+  <si>
+    <t>27870718</t>
+  </si>
+  <si>
+    <t>TAGAATTCTCGCCTGCCACG</t>
+  </si>
+  <si>
+    <t>84% (61)</t>
+  </si>
+  <si>
+    <t>46% (43)</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>27870761</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>27870741</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>GCGAGGCATTGGTGGTTCAG</t>
+  </si>
+  <si>
+    <t>94% (75)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 35, Doench 2016: 84%, Moreno-Mateos: 94%</t>
+  </si>
+  <si>
+    <t>2.17356E+11</t>
   </si>
 </sst>
 </file>
@@ -263,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -401,13 +479,13 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -419,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>9</v>
@@ -428,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
@@ -481,22 +559,22 @@
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -510,22 +588,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -537,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -569,22 +647,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -596,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
@@ -611,10 +689,10 @@
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -628,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -655,22 +733,22 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
         <v>61</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>13</v>
       </c>
       <c r="Q7" t="s">
         <v>63</v>
@@ -687,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -696,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -717,28 +795,205 @@
         <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
       </c>
       <c r="S8" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
